--- a/327-automatisation-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/327-automatisation-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T13:39:21+00:00</t>
+    <t>2024-03-19T13:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,10 +237,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Spécification métier vers l'extension ROR HealthcareServicePatientType</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Spécification métier vers l'extension ROR HealthcareServicePatientType</t>
   </si>
   <si>
     <t/>
@@ -463,12 +463,12 @@
 qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
+    <t>ageMin</t>
+  </si>
+  <si>
     <t>./low</t>
   </si>
   <si>
-    <t>ageMin</t>
-  </si>
-  <si>
     <t>Extension.extension:ageRange.value[x].high</t>
   </si>
   <si>
@@ -487,10 +487,10 @@
     <t>Range.high</t>
   </si>
   <si>
+    <t>ageMax</t>
+  </si>
+  <si>
     <t>./high</t>
-  </si>
-  <si>
-    <t>ageMax</t>
   </si>
   <si>
     <t>base64Binary
@@ -849,8 +849,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="86.46875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1069,10 +1069,10 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1175,10 +1175,10 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1495,10 +1495,10 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1709,10 +1709,10 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1813,10 +1813,10 @@
         <v>119</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -2027,10 +2027,10 @@
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2241,10 +2241,10 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -2347,10 +2347,10 @@
         <v>119</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -2453,10 +2453,10 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -2561,10 +2561,10 @@
         <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -2885,10 +2885,10 @@
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -2991,10 +2991,10 @@
         <v>119</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/327-automatisation-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/327-automatisation-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:17:15+00:00</t>
+    <t>2024-03-19T15:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
